--- a/matlab/logDataProcess/google-060217.xlsx
+++ b/matlab/logDataProcess/google-060217.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="315" windowWidth="24810" windowHeight="10245"/>
+    <workbookView xWindow="2535" yWindow="1365" windowWidth="24810" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
   <si>
     <t>reactor</t>
   </si>
@@ -131,6 +131,69 @@
   </si>
   <si>
     <t>ipb4-44-100ns-300v-ex2.csv</t>
+  </si>
+  <si>
+    <t>sri-ipb1-41</t>
+  </si>
+  <si>
+    <t>sri-ipb1-41-6000ns-40v-calibration.csv</t>
+  </si>
+  <si>
+    <t>sri-ipb1-41-6000ns-40v-temp.csv</t>
+  </si>
+  <si>
+    <t>sri-ipb1-41-100ns-300v-temp.csv</t>
+  </si>
+  <si>
+    <t>060317</t>
+  </si>
+  <si>
+    <t>060217</t>
+  </si>
+  <si>
+    <t>6000ns-40v-temp</t>
+  </si>
+  <si>
+    <t>sri-ipb2-33-6000ns-40v-calibration2.csv</t>
+  </si>
+  <si>
+    <t>sri-ipb2-33</t>
+  </si>
+  <si>
+    <t>ipb4-44-6000ns-40v-calibration2.csv</t>
+  </si>
+  <si>
+    <t>061117</t>
+  </si>
+  <si>
+    <t>061217</t>
+  </si>
+  <si>
+    <t>ipb4-44-100ns-300v-ex4.csv</t>
+  </si>
+  <si>
+    <t>sri-ipb2-33-6000ns-40v-excitation2.csv</t>
+  </si>
+  <si>
+    <t>sri-ipb1-41-100ns-300v-excitation.csv</t>
+  </si>
+  <si>
+    <t>ipb3-43-100ns-300v-excitation.csv</t>
+  </si>
+  <si>
+    <t>061617</t>
+  </si>
+  <si>
+    <t>sri-ipb1-41-6000ns-40v-excitation.csv</t>
+  </si>
+  <si>
+    <t>ipb41-44</t>
+  </si>
+  <si>
+    <t>061717</t>
+  </si>
+  <si>
+    <t>6000ns-40v-calibration.csv</t>
   </si>
 </sst>
 </file>
@@ -287,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,6 +528,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -628,11 +697,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -978,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -990,7 +1060,7 @@
     <col min="2" max="2" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -1214,19 +1284,19 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1256,10 +1326,10 @@
         <v>17</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1270,13 +1340,13 @@
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1306,7 +1376,7 @@
         <v>17</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1317,16 +1387,16 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1356,7 +1426,7 @@
         <v>17</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1370,13 +1440,13 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1406,7 +1476,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1417,16 +1487,16 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1456,42 +1526,576 @@
         <v>17</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O10" s="2">
+        <v>189</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-    </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O11" s="2">
+        <v>189</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O12" s="2">
+        <v>189</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O13" s="2">
+        <v>189</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O14" s="2">
+        <v>189</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O15" s="2">
+        <v>189</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O16" s="2">
+        <v>189</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O17" s="2">
+        <v>189</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D18" s="3"/>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O18" s="2">
+        <v>189</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O19" s="2">
+        <v>189</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O20" s="2">
+        <v>189</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/logDataProcess/google-060217.xlsx
+++ b/matlab/logDataProcess/google-060217.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1365" windowWidth="24810" windowHeight="10245"/>
+    <workbookView xWindow="15165" yWindow="-15" windowWidth="15210" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="75">
   <si>
     <t>reactor</t>
   </si>
@@ -194,13 +194,58 @@
   </si>
   <si>
     <t>6000ns-40v-calibration.csv</t>
+  </si>
+  <si>
+    <t>061917</t>
+  </si>
+  <si>
+    <t>sri-ipb1-41-100ns-300v-excitation2.csv</t>
+  </si>
+  <si>
+    <t>ipb3-43-100ns-300v-excitation2.csv</t>
+  </si>
+  <si>
+    <t>ipb3-43-6000ns-40v-excitation.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-excitation.csv</t>
+  </si>
+  <si>
+    <t>061817</t>
+  </si>
+  <si>
+    <t>6000ns-40v-excitation.csv</t>
+  </si>
+  <si>
+    <t>sri-ipb2-33100ns-300v-excitation-partial.csv</t>
+  </si>
+  <si>
+    <t>ipb3-43-100ns-300v-temp2.csv</t>
+  </si>
+  <si>
+    <t>ipb3-43-100ns-300v-temp3.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-temp2</t>
+  </si>
+  <si>
+    <t>ipb3-43-100ns-300v-excitation3.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-temp3</t>
+  </si>
+  <si>
+    <t>100ns-300v-excitation2</t>
+  </si>
+  <si>
+    <t>100ns-300v-excitation3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +394,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,7 +584,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,12 +773,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1048,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1161,7 @@
     <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1129,973 +1219,1436 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N2" s="4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O2" s="2">
-        <v>189</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="O2" s="4">
+        <v>189</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N3" s="4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O3" s="2">
-        <v>189</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="O3" s="4">
+        <v>189</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O4" s="2">
-        <v>189</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="O4" s="4">
+        <v>189</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>5</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O5" s="2">
-        <v>189</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="O5" s="4">
+        <v>189</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O6" s="4">
+        <v>189</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O7" s="4">
+        <v>189</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O8" s="4">
+        <v>189</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O9" s="4">
+        <v>189</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O10" s="4">
+        <v>189</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F11" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G11" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="N11" s="6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O6" s="2">
-        <v>189</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="O11" s="6">
+        <v>189</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G12" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="N12" s="6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O7" s="2">
-        <v>189</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+      <c r="O12" s="6">
+        <v>189</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F13" s="6">
         <v>5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G13" s="6">
         <v>5</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O8" s="2">
-        <v>189</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="2" t="s">
+      <c r="O13" s="6">
+        <v>189</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F14" s="6">
         <v>4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G14" s="6">
         <v>4</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="N14" s="6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O9" s="2">
-        <v>189</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="2" t="s">
+      <c r="O14" s="6">
+        <v>189</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F15" s="6">
         <v>5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G15" s="6">
         <v>5</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="N15" s="6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O10" s="2">
-        <v>189</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="2" t="s">
+      <c r="O15" s="6">
+        <v>189</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F16" s="6">
         <v>6</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G16" s="6">
         <v>6</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="N16" s="6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O11" s="2">
-        <v>189</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="2" t="s">
+      <c r="O16" s="6">
+        <v>189</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F17" s="6">
         <v>7</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G17" s="6">
         <v>7</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="N17" s="6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O12" s="2">
-        <v>189</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="2" t="s">
+      <c r="O17" s="6">
+        <v>189</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F18" s="8">
         <v>1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N18" s="8">
         <v>1.75</v>
       </c>
-      <c r="O13" s="2">
-        <v>189</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="O18" s="8">
+        <v>189</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F19" s="8">
         <v>2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G19" s="8">
         <v>2</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N19" s="8">
         <v>1.75</v>
       </c>
-      <c r="O14" s="2">
-        <v>189</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="2" t="s">
+      <c r="O19" s="8">
+        <v>189</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F20" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G20" s="8">
         <v>3</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N20" s="8">
         <v>1.75</v>
       </c>
-      <c r="O15" s="2">
-        <v>189</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="2" t="s">
+      <c r="O20" s="8">
+        <v>189</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F21" s="8">
         <v>4</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G21" s="8">
         <v>4</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N21" s="8">
         <v>1.75</v>
       </c>
-      <c r="O16" s="2">
-        <v>189</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="2" t="s">
+      <c r="O21" s="8">
+        <v>189</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F22" s="8">
         <v>5</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G22" s="8">
         <v>5</v>
       </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N22" s="8">
         <v>1.75</v>
       </c>
-      <c r="O17" s="2">
-        <v>189</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="2" t="s">
+      <c r="O22" s="8">
+        <v>189</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="8">
+        <v>6</v>
+      </c>
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N23" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="O23" s="8">
+        <v>189</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F24" s="10">
         <v>3</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G24" s="10">
         <v>3</v>
       </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="N24" s="10">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O18" s="2">
-        <v>189</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="2" t="s">
+      <c r="O24" s="10">
+        <v>189</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F25" s="10">
         <v>4</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G25" s="10">
         <v>4</v>
       </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="N25" s="10">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O19" s="2">
-        <v>189</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="2" t="s">
+      <c r="O25" s="10">
+        <v>189</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="14">
+        <v>5</v>
+      </c>
+      <c r="G26" s="14">
+        <v>5</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="14">
+        <v>16.5</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="N26" s="14">
+        <v>1.95</v>
+      </c>
+      <c r="O26" s="14">
+        <v>189</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F27" s="12">
+        <v>3</v>
+      </c>
+      <c r="G27" s="12">
+        <v>3</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="12">
+        <v>16.5</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="N27" s="12">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O27" s="12">
+        <v>189</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="12">
         <v>1</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G28" s="12">
         <v>1</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="12">
+        <v>16.5</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="N28" s="12">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O20" s="2">
-        <v>189</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="O28" s="12">
+        <v>189</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="12">
+        <v>16.5</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="N29" s="12">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O29" s="12">
+        <v>189</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/logDataProcess/google-060217.xlsx
+++ b/matlab/logDataProcess/google-060217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="78">
   <si>
     <t>reactor</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>100ns-300v-excitation3</t>
+  </si>
+  <si>
+    <t>062417</t>
+  </si>
+  <si>
+    <t>6000ns-40v-calibration2.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-calibration-50hr</t>
   </si>
 </sst>
 </file>
@@ -773,11 +782,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1141,7 +1149,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1219,1436 +1227,1483 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N2" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O2" s="4">
-        <v>189</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="O2" s="3">
+        <v>189</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N3" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O3" s="4">
-        <v>189</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="O3" s="3">
+        <v>189</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O4" s="4">
-        <v>189</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="O4" s="3">
+        <v>189</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O5" s="4">
-        <v>189</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+      <c r="O5" s="3">
+        <v>189</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>6</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>6</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O6" s="4">
-        <v>189</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="4" t="s">
+      <c r="O6" s="3">
+        <v>189</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>7</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>7</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O7" s="4">
-        <v>189</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="4" t="s">
+      <c r="O7" s="3">
+        <v>189</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>4</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>4</v>
       </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O8" s="4">
-        <v>189</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="O8" s="3">
+        <v>189</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>8</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>8</v>
       </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N9" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O9" s="4">
-        <v>189</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="4" t="s">
+      <c r="O9" s="3">
+        <v>189</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>9</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>9</v>
       </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N10" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O10" s="4">
-        <v>189</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="4" t="s">
+      <c r="O10" s="3">
+        <v>189</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>2</v>
       </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N11" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O11" s="6">
-        <v>189</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="6" t="s">
+      <c r="O11" s="5">
+        <v>189</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N12" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O12" s="6">
-        <v>189</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="6" t="s">
+      <c r="O12" s="5">
+        <v>189</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>5</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>5</v>
       </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="N13" s="6">
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O13" s="6">
-        <v>189</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="6" t="s">
+      <c r="O13" s="5">
+        <v>189</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>4</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>4</v>
       </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="N14" s="6">
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N14" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O14" s="6">
-        <v>189</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="6" t="s">
+      <c r="O14" s="5">
+        <v>189</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>5</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>5</v>
       </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N15" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O15" s="6">
-        <v>189</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="6" t="s">
+      <c r="O15" s="5">
+        <v>189</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>6</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>6</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="N16" s="6">
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N16" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O16" s="6">
-        <v>189</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="6" t="s">
+      <c r="O16" s="5">
+        <v>189</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>7</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>7</v>
       </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="N17" s="6">
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N17" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O17" s="6">
-        <v>189</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="6" t="s">
+      <c r="O17" s="5">
+        <v>189</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>1</v>
       </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="8">
-        <v>16.5</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="N18" s="8">
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N18" s="7">
         <v>1.75</v>
       </c>
-      <c r="O18" s="8">
-        <v>189</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="8" t="s">
+      <c r="O18" s="7">
+        <v>189</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>2</v>
       </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="8">
-        <v>16.5</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="N19" s="8">
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N19" s="7">
         <v>1.75</v>
       </c>
-      <c r="O19" s="8">
-        <v>189</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="8" t="s">
+      <c r="O19" s="7">
+        <v>189</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>3</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>3</v>
       </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="8">
-        <v>16.5</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="N20" s="8">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N20" s="7">
         <v>1.75</v>
       </c>
-      <c r="O20" s="8">
-        <v>189</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="8" t="s">
+      <c r="O20" s="7">
+        <v>189</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>4</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>4</v>
       </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="8">
-        <v>16.5</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="N21" s="8">
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N21" s="7">
         <v>1.75</v>
       </c>
-      <c r="O21" s="8">
-        <v>189</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="8" t="s">
+      <c r="O21" s="7">
+        <v>189</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>5</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>5</v>
       </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="8">
-        <v>16.5</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="N22" s="8">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N22" s="7">
         <v>1.75</v>
       </c>
-      <c r="O22" s="8">
-        <v>189</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="8" t="s">
+      <c r="O22" s="7">
+        <v>189</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>6</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>6</v>
       </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="8">
-        <v>16.5</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="N23" s="8">
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N23" s="7">
         <v>1.75</v>
       </c>
-      <c r="O23" s="8">
-        <v>189</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="8" t="s">
+      <c r="O23" s="7">
+        <v>189</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>3</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>3</v>
       </c>
-      <c r="H24" s="10">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="N24" s="10">
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N24" s="9">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O24" s="10">
-        <v>189</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="10" t="s">
+      <c r="O24" s="9">
+        <v>189</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>4</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>4</v>
       </c>
-      <c r="H25" s="10">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10">
-        <v>0</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="N25" s="10">
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N25" s="9">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O25" s="10">
-        <v>189</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="10" t="s">
+      <c r="O25" s="9">
+        <v>189</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>5</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>5</v>
       </c>
-      <c r="H26" s="14">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14">
-        <v>0</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="14">
-        <v>16.5</v>
-      </c>
-      <c r="L26" s="14">
-        <v>0</v>
-      </c>
-      <c r="M26" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="N26" s="14">
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="N26" s="13">
         <v>1.95</v>
       </c>
-      <c r="O26" s="14">
-        <v>189</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="16" t="s">
+      <c r="O26" s="13">
+        <v>189</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>3</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>3</v>
       </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="12">
-        <v>16.5</v>
-      </c>
-      <c r="L27" s="12">
-        <v>0</v>
-      </c>
-      <c r="M27" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="N27" s="12">
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N27" s="11">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O27" s="12">
-        <v>189</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="12" t="s">
+      <c r="O27" s="11">
+        <v>189</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N28" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O28" s="11">
+        <v>189</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="11">
+        <v>2</v>
+      </c>
+      <c r="G29" s="11">
+        <v>2</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N29" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O29" s="11">
+        <v>189</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="11">
+        <v>4</v>
+      </c>
+      <c r="G30" s="11">
+        <v>4</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N30" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O30" s="11">
+        <v>189</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="12">
-        <v>1</v>
-      </c>
-      <c r="G28" s="12">
-        <v>1</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="12">
-        <v>16.5</v>
-      </c>
-      <c r="L28" s="12">
-        <v>0</v>
-      </c>
-      <c r="M28" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="N28" s="12">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O28" s="12">
-        <v>189</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="12">
-        <v>2</v>
-      </c>
-      <c r="G29" s="12">
-        <v>2</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="12">
-        <v>16.5</v>
-      </c>
-      <c r="L29" s="12">
-        <v>0</v>
-      </c>
-      <c r="M29" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="N29" s="12">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O29" s="12">
-        <v>189</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/logDataProcess/google-060217.xlsx
+++ b/matlab/logDataProcess/google-060217.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15165" yWindow="-15" windowWidth="15210" windowHeight="10245"/>
+    <workbookView xWindow="15165" yWindow="-15" windowWidth="17880" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="81">
   <si>
     <t>reactor</t>
   </si>
@@ -248,6 +248,15 @@
   </si>
   <si>
     <t>6000ns-40v-calibration-50hr</t>
+  </si>
+  <si>
+    <t>071017</t>
+  </si>
+  <si>
+    <t>10us-30v-calibration</t>
+  </si>
+  <si>
+    <t>ipb3-43-10us-30v-calibration.csv</t>
   </si>
 </sst>
 </file>
@@ -1146,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1686,54 +1695,54 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="A11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N11" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O11" s="5">
-        <v>189</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>21</v>
+      <c r="O11" s="3">
+        <v>189</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1748,13 +1757,13 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
@@ -1784,7 +1793,7 @@
         <v>17</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1795,17 +1804,17 @@
         <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
@@ -1835,7 +1844,7 @@
         <v>17</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1850,13 +1859,13 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -1886,7 +1895,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1897,17 +1906,17 @@
         <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F15" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
@@ -1937,7 +1946,7 @@
         <v>17</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1948,17 +1957,17 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -1988,7 +1997,7 @@
         <v>17</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -1999,17 +2008,17 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F17" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -2039,58 +2048,58 @@
         <v>17</v>
       </c>
       <c r="Q17" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="5">
+        <v>7</v>
+      </c>
+      <c r="G18" s="5">
+        <v>7</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N18" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O18" s="5">
+        <v>189</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1.75</v>
-      </c>
-      <c r="O18" s="7">
-        <v>189</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -2101,17 +2110,17 @@
         <v>39</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2141,7 +2150,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -2152,17 +2161,17 @@
         <v>39</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2192,7 +2201,7 @@
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -2203,17 +2212,17 @@
         <v>39</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2243,7 +2252,7 @@
         <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -2254,17 +2263,17 @@
         <v>39</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F22" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2294,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -2305,17 +2314,17 @@
         <v>39</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F23" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2345,58 +2354,58 @@
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="7">
+        <v>6</v>
+      </c>
+      <c r="G24" s="7">
+        <v>6</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="O24" s="7">
+        <v>189</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="9">
-        <v>3</v>
-      </c>
-      <c r="G24" s="9">
-        <v>3</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="9">
-        <v>16.5</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="N24" s="9">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O24" s="9">
-        <v>189</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -2407,17 +2416,17 @@
         <v>47</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F25" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="9">
         <v>0</v>
@@ -2447,109 +2456,109 @@
         <v>17</v>
       </c>
       <c r="Q25" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="9">
+        <v>4</v>
+      </c>
+      <c r="G26" s="9">
+        <v>4</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N26" s="9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O26" s="9">
+        <v>189</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="13" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="9" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>5</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>5</v>
       </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="13">
-        <v>16.5</v>
-      </c>
-      <c r="L26" s="13">
-        <v>0</v>
-      </c>
-      <c r="M26" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="N26" s="13">
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="N27" s="13">
         <v>1.95</v>
       </c>
-      <c r="O26" s="13">
-        <v>189</v>
-      </c>
-      <c r="P26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="15" t="s">
+      <c r="O27" s="13">
+        <v>189</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="15" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="11">
-        <v>3</v>
-      </c>
-      <c r="G27" s="11">
-        <v>3</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="11">
-        <v>16.5</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="N27" s="11">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O27" s="11">
-        <v>189</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -2560,17 +2569,17 @@
         <v>57</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F28" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" s="11">
         <v>0</v>
@@ -2600,7 +2609,7 @@
         <v>17</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -2611,17 +2620,17 @@
         <v>57</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F29" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="11">
         <v>0</v>
@@ -2651,7 +2660,7 @@
         <v>17</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -2662,17 +2671,17 @@
         <v>57</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F30" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
@@ -2702,6 +2711,57 @@
         <v>17</v>
       </c>
       <c r="Q30" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="11">
+        <v>4</v>
+      </c>
+      <c r="G31" s="11">
+        <v>4</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N31" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O31" s="11">
+        <v>189</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="11" t="s">
         <v>22</v>
       </c>
     </row>

--- a/matlab/logDataProcess/google-060217.xlsx
+++ b/matlab/logDataProcess/google-060217.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15165" yWindow="-15" windowWidth="17880" windowHeight="10245"/>
+    <workbookView xWindow="3945" yWindow="-375" windowWidth="20685" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="87">
   <si>
     <t>reactor</t>
   </si>
@@ -257,6 +257,24 @@
   </si>
   <si>
     <t>ipb3-43-10us-30v-calibration.csv</t>
+  </si>
+  <si>
+    <t>071217</t>
+  </si>
+  <si>
+    <t>ipb3-43-100ns-300v-excitation4.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-excitation4</t>
+  </si>
+  <si>
+    <t>071317</t>
+  </si>
+  <si>
+    <t>300ns-200v-excitation</t>
+  </si>
+  <si>
+    <t>ipb3-43-300ns-200v-excitation-partial.csv</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1746,105 +1764,105 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5">
-        <v>2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="A12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="3">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N12" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O12" s="5">
-        <v>189</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>21</v>
+      <c r="O12" s="3">
+        <v>189</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="A13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="3">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O13" s="5">
-        <v>189</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>22</v>
+      <c r="O13" s="3">
+        <v>189</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1855,17 +1873,17 @@
         <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -1895,7 +1913,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1906,17 +1924,17 @@
         <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
@@ -1946,7 +1964,7 @@
         <v>17</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1957,11 +1975,11 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F16" s="5">
         <v>5</v>
@@ -1997,7 +2015,7 @@
         <v>17</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -2008,17 +2026,17 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F17" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -2048,7 +2066,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -2059,17 +2077,17 @@
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F18" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
@@ -2099,109 +2117,109 @@
         <v>17</v>
       </c>
       <c r="Q18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="5">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5">
+        <v>6</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N19" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O19" s="5">
+        <v>189</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="5">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5">
+        <v>7</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N20" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O20" s="5">
+        <v>189</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1.75</v>
-      </c>
-      <c r="O19" s="7">
-        <v>189</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7">
-        <v>2</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1.75</v>
-      </c>
-      <c r="O20" s="7">
-        <v>189</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -2212,17 +2230,17 @@
         <v>39</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2252,7 +2270,7 @@
         <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -2263,17 +2281,17 @@
         <v>39</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2303,7 +2321,7 @@
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -2314,17 +2332,17 @@
         <v>39</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F23" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2354,7 +2372,7 @@
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -2365,17 +2383,17 @@
         <v>39</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F24" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G24" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2409,257 +2427,257 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="O25" s="7">
+        <v>189</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="7">
+        <v>6</v>
+      </c>
+      <c r="G26" s="7">
+        <v>6</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="O26" s="7">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F27" s="9">
         <v>3</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G27" s="9">
         <v>3</v>
       </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="9">
-        <v>16.5</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="N25" s="9">
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N27" s="9">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O25" s="9">
-        <v>189</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="9" t="s">
+      <c r="O27" s="9">
+        <v>189</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="9" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F28" s="9">
         <v>4</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G28" s="9">
         <v>4</v>
       </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="9">
-        <v>16.5</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="N26" s="9">
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N28" s="9">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O26" s="9">
-        <v>189</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="9" t="s">
+      <c r="O28" s="9">
+        <v>189</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="13" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="9" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F29" s="13">
         <v>5</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G29" s="13">
         <v>5</v>
       </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="13">
-        <v>16.5</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="N27" s="13">
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="N29" s="13">
         <v>1.95</v>
       </c>
-      <c r="O27" s="13">
-        <v>189</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="11">
-        <v>3</v>
-      </c>
-      <c r="G28" s="11">
-        <v>3</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="11">
-        <v>16.5</v>
-      </c>
-      <c r="L28" s="11">
-        <v>0</v>
-      </c>
-      <c r="M28" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="N28" s="11">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O28" s="11">
-        <v>189</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="11">
-        <v>16.5</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="N29" s="11">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O29" s="11">
-        <v>189</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q29" s="11" t="s">
+      <c r="O29" s="13">
+        <v>189</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2671,17 +2689,17 @@
         <v>57</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F30" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
@@ -2711,7 +2729,7 @@
         <v>17</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -2722,17 +2740,17 @@
         <v>57</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F31" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H31" s="11">
         <v>0</v>
@@ -2762,8 +2780,129 @@
         <v>17</v>
       </c>
       <c r="Q31" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="11">
+        <v>2</v>
+      </c>
+      <c r="G32" s="11">
+        <v>2</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N32" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O32" s="11">
+        <v>189</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="11">
+        <v>4</v>
+      </c>
+      <c r="G33" s="11">
+        <v>4</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N33" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O33" s="11">
+        <v>189</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" s="11" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/logDataProcess/google-060217.xlsx
+++ b/matlab/logDataProcess/google-060217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
   <si>
     <t>reactor</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>ipb3-43-300ns-200v-excitation-partial.csv</t>
+  </si>
+  <si>
+    <t>sri-ipb2-33-91ns-300v-excitation.csv</t>
+  </si>
+  <si>
+    <t>080917</t>
+  </si>
+  <si>
+    <t>91ns-300v-excitation</t>
   </si>
 </sst>
 </file>
@@ -1173,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2682,54 +2691,54 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="11">
-        <v>3</v>
-      </c>
-      <c r="G30" s="11">
-        <v>3</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="11">
-        <v>16.5</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="N30" s="11">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O30" s="11">
-        <v>189</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q30" s="11" t="s">
-        <v>77</v>
+      <c r="A30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="13">
+        <v>10</v>
+      </c>
+      <c r="G30" s="13">
+        <v>10</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="N30" s="13">
+        <v>1.95</v>
+      </c>
+      <c r="O30" s="13">
+        <v>189</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -2740,17 +2749,17 @@
         <v>57</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F31" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" s="11">
         <v>0</v>
@@ -2780,7 +2789,7 @@
         <v>17</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -2791,17 +2800,17 @@
         <v>57</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F32" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="11">
         <v>0</v>
@@ -2831,7 +2840,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -2842,17 +2851,17 @@
         <v>57</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F33" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G33" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" s="11">
         <v>0</v>
@@ -2882,27 +2891,78 @@
         <v>17</v>
       </c>
       <c r="Q33" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="11">
+        <v>4</v>
+      </c>
+      <c r="G34" s="11">
+        <v>4</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N34" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O34" s="11">
+        <v>189</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/logDataProcess/google-060217.xlsx
+++ b/matlab/logDataProcess/google-060217.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="-375" windowWidth="20685" windowHeight="10245"/>
+    <workbookView xWindow="2340" yWindow="-195" windowWidth="21255" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="113">
   <si>
     <t>reactor</t>
   </si>
@@ -284,6 +284,75 @@
   </si>
   <si>
     <t>91ns-300v-excitation</t>
+  </si>
+  <si>
+    <t>ipb43-14</t>
+  </si>
+  <si>
+    <t>082417</t>
+  </si>
+  <si>
+    <t>ipb43-14-10us-35v-calibration.csv</t>
+  </si>
+  <si>
+    <t>ipb3-56</t>
+  </si>
+  <si>
+    <t>sri-ipb1-43-10us-35v-calibration.csv</t>
+  </si>
+  <si>
+    <t>ipb3-56-10us-35v-calibration.csv</t>
+  </si>
+  <si>
+    <t>082317</t>
+  </si>
+  <si>
+    <t>ipb3-56-100ns-300v-excitation.csv</t>
+  </si>
+  <si>
+    <t>ipb3-56-10us-35v-excitation.csv</t>
+  </si>
+  <si>
+    <t>081617</t>
+  </si>
+  <si>
+    <t>081817</t>
+  </si>
+  <si>
+    <t>10us-35v-calibration</t>
+  </si>
+  <si>
+    <t>10us-35v-excitation</t>
+  </si>
+  <si>
+    <t>sri-ipb1-43</t>
+  </si>
+  <si>
+    <t>082817</t>
+  </si>
+  <si>
+    <t>ipb3-56-150ns-270v-excitation.csv</t>
+  </si>
+  <si>
+    <t>sri-ipb1-43-6us-40v-excitation.csv</t>
+  </si>
+  <si>
+    <t>ipb35-51</t>
+  </si>
+  <si>
+    <t>090317</t>
+  </si>
+  <si>
+    <t>090517</t>
+  </si>
+  <si>
+    <t>ipb35-51-10us-35v-calibration.csv</t>
+  </si>
+  <si>
+    <t>ipb35-51-100ns-325v-excitation.csv</t>
+  </si>
+  <si>
+    <t>100ns-325v-excitation</t>
   </si>
 </sst>
 </file>
@@ -818,7 +887,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -837,6 +906,14 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1182,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1199,7 +1276,7 @@
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
@@ -1240,7 +1317,7 @@
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="18" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1291,7 +1368,7 @@
       <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="19">
         <v>16.5</v>
       </c>
       <c r="L2" s="3">
@@ -1342,7 +1419,7 @@
       <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="19">
         <v>16.5</v>
       </c>
       <c r="L3" s="3">
@@ -1393,7 +1470,7 @@
       <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="19">
         <v>16.5</v>
       </c>
       <c r="L4" s="3">
@@ -1444,7 +1521,7 @@
       <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="19">
         <v>16.5</v>
       </c>
       <c r="L5" s="3">
@@ -1495,7 +1572,7 @@
       <c r="J6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="19">
         <v>16.5</v>
       </c>
       <c r="L6" s="3">
@@ -1546,7 +1623,7 @@
       <c r="J7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="19">
         <v>16.5</v>
       </c>
       <c r="L7" s="3">
@@ -1597,7 +1674,7 @@
       <c r="J8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="19">
         <v>16.5</v>
       </c>
       <c r="L8" s="3">
@@ -1648,7 +1725,7 @@
       <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="19">
         <v>16.5</v>
       </c>
       <c r="L9" s="3">
@@ -1699,7 +1776,7 @@
       <c r="J10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="19">
         <v>16.5</v>
       </c>
       <c r="L10" s="3">
@@ -1750,7 +1827,7 @@
       <c r="J11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="19">
         <v>16.5</v>
       </c>
       <c r="L11" s="3">
@@ -1801,7 +1878,7 @@
       <c r="J12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="19">
         <v>16.5</v>
       </c>
       <c r="L12" s="3">
@@ -1852,7 +1929,7 @@
       <c r="J13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="19">
         <v>16.5</v>
       </c>
       <c r="L13" s="3">
@@ -1903,7 +1980,7 @@
       <c r="J14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="20">
         <v>16.5</v>
       </c>
       <c r="L14" s="5">
@@ -1954,7 +2031,7 @@
       <c r="J15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="20">
         <v>16.5</v>
       </c>
       <c r="L15" s="5">
@@ -2005,7 +2082,7 @@
       <c r="J16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="20">
         <v>16.5</v>
       </c>
       <c r="L16" s="5">
@@ -2056,7 +2133,7 @@
       <c r="J17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="20">
         <v>16.5</v>
       </c>
       <c r="L17" s="5">
@@ -2107,7 +2184,7 @@
       <c r="J18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="20">
         <v>16.5</v>
       </c>
       <c r="L18" s="5">
@@ -2158,7 +2235,7 @@
       <c r="J19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="20">
         <v>16.5</v>
       </c>
       <c r="L19" s="5">
@@ -2209,7 +2286,7 @@
       <c r="J20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="20">
         <v>16.5</v>
       </c>
       <c r="L20" s="5">
@@ -2260,7 +2337,7 @@
       <c r="J21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="21">
         <v>16.5</v>
       </c>
       <c r="L21" s="7">
@@ -2311,7 +2388,7 @@
       <c r="J22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="21">
         <v>16.5</v>
       </c>
       <c r="L22" s="7">
@@ -2362,7 +2439,7 @@
       <c r="J23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="21">
         <v>16.5</v>
       </c>
       <c r="L23" s="7">
@@ -2413,7 +2490,7 @@
       <c r="J24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="21">
         <v>16.5</v>
       </c>
       <c r="L24" s="7">
@@ -2464,7 +2541,7 @@
       <c r="J25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="21">
         <v>16.5</v>
       </c>
       <c r="L25" s="7">
@@ -2515,7 +2592,7 @@
       <c r="J26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="21">
         <v>16.5</v>
       </c>
       <c r="L26" s="7">
@@ -2566,7 +2643,7 @@
       <c r="J27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="22">
         <v>16.5</v>
       </c>
       <c r="L27" s="9">
@@ -2617,7 +2694,7 @@
       <c r="J28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="22">
         <v>16.5</v>
       </c>
       <c r="L28" s="9">
@@ -2668,7 +2745,7 @@
       <c r="J29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="23">
         <v>16.5</v>
       </c>
       <c r="L29" s="13">
@@ -2719,7 +2796,7 @@
       <c r="J30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="23">
         <v>16.5</v>
       </c>
       <c r="L30" s="13">
@@ -2770,7 +2847,7 @@
       <c r="J31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="24">
         <v>16.5</v>
       </c>
       <c r="L31" s="11">
@@ -2821,7 +2898,7 @@
       <c r="J32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="24">
         <v>16.5</v>
       </c>
       <c r="L32" s="11">
@@ -2872,7 +2949,7 @@
       <c r="J33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="24">
         <v>16.5</v>
       </c>
       <c r="L33" s="11">
@@ -2923,7 +3000,7 @@
       <c r="J34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="24">
         <v>16.5</v>
       </c>
       <c r="L34" s="11">
@@ -2946,23 +3023,463 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="24">
+        <v>18.5</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N35" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="O35" s="11">
+        <v>189</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="24">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N36" s="11">
+        <v>1.97</v>
+      </c>
+      <c r="O36" s="11">
+        <v>189</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="11">
+        <v>2</v>
+      </c>
+      <c r="G37" s="11">
+        <v>2</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="24">
+        <v>18</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N37" s="11">
+        <v>1.97</v>
+      </c>
+      <c r="O37" s="11">
+        <v>189</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="11">
+        <v>3</v>
+      </c>
+      <c r="G38" s="11">
+        <v>3</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="24">
+        <v>18</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N38" s="11">
+        <v>1.97</v>
+      </c>
+      <c r="O38" s="11">
+        <v>189</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="24">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N39" s="11">
+        <v>2.02</v>
+      </c>
+      <c r="O39" s="11">
+        <v>189</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="11">
+        <v>4</v>
+      </c>
+      <c r="G40" s="11">
+        <v>4</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="24">
+        <v>18</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N40" s="11">
+        <v>1.97</v>
+      </c>
+      <c r="O40" s="11">
+        <v>189</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="11">
+        <v>2</v>
+      </c>
+      <c r="G41" s="11">
+        <v>2</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="24">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N41" s="11">
+        <v>2.02</v>
+      </c>
+      <c r="O41" s="11">
+        <v>189</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="24">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N42" s="11">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O42" s="11">
+        <v>189</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="11">
+        <v>2</v>
+      </c>
+      <c r="G43" s="11">
+        <v>2</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="24">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N43" s="11">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O43" s="11">
+        <v>189</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/logDataProcess/google-060217.xlsx
+++ b/matlab/logDataProcess/google-060217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="155">
   <si>
     <t>reactor</t>
   </si>
@@ -380,6 +380,105 @@
   </si>
   <si>
     <t>ipb35-51-10us-35v-excitation.csv</t>
+  </si>
+  <si>
+    <t>092817</t>
+  </si>
+  <si>
+    <t>ipb35-51-10us-35v-calibration2.csv</t>
+  </si>
+  <si>
+    <t>100417</t>
+  </si>
+  <si>
+    <t>ipb45-58-10us-35v-30psi-calibration.csv</t>
+  </si>
+  <si>
+    <t>ipb45-58-10us-35v-30psi-excitation.csv</t>
+  </si>
+  <si>
+    <t>100617</t>
+  </si>
+  <si>
+    <t>ipb45-58-100ns-325v-30psi-excitation.csv</t>
+  </si>
+  <si>
+    <t>ipb45-58-150ns-270v-30psi-excitation.csv</t>
+  </si>
+  <si>
+    <t>ipb45-58</t>
+  </si>
+  <si>
+    <t>ipb45-58-10us-35v-120psi-calibration.csv</t>
+  </si>
+  <si>
+    <t>ipb45-58-10us-35v-120psi-excitation.csv</t>
+  </si>
+  <si>
+    <t>100917</t>
+  </si>
+  <si>
+    <t>150ns-270v-excitation</t>
+  </si>
+  <si>
+    <t>10us-35v-calibration-120psi</t>
+  </si>
+  <si>
+    <t>10us-35v-excitation-120psi</t>
+  </si>
+  <si>
+    <t>101017</t>
+  </si>
+  <si>
+    <t>101417</t>
+  </si>
+  <si>
+    <t>101617</t>
+  </si>
+  <si>
+    <t>ipb35-62</t>
+  </si>
+  <si>
+    <t>101517</t>
+  </si>
+  <si>
+    <t>6us-40v-calibration</t>
+  </si>
+  <si>
+    <t>ipb35-62-6us-40v-calibration.csv</t>
+  </si>
+  <si>
+    <t>101717</t>
+  </si>
+  <si>
+    <t>ipb35-62-6us-40v-excitation.csv</t>
+  </si>
+  <si>
+    <t>101817</t>
+  </si>
+  <si>
+    <t>ipb45-58-100ns-325v-120psi-excitation.csv</t>
+  </si>
+  <si>
+    <t>100ns-325v-excitation-120psi</t>
+  </si>
+  <si>
+    <t>ipb45-58-100ns-325v-he-excitation.csv</t>
+  </si>
+  <si>
+    <t>102417</t>
+  </si>
+  <si>
+    <t>102617</t>
+  </si>
+  <si>
+    <t>ipb45-58-100ns-325v-120psi-excitation2.csv</t>
+  </si>
+  <si>
+    <t>102017</t>
+  </si>
+  <si>
+    <t>ipb45-58-10us-35v-he-excitation.csv</t>
   </si>
 </sst>
 </file>
@@ -1297,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3010,54 +3109,54 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="11">
-        <v>2</v>
-      </c>
-      <c r="G34" s="11">
-        <v>2</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="24">
+      <c r="C34" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="26">
+        <v>4</v>
+      </c>
+      <c r="G34" s="26">
+        <v>4</v>
+      </c>
+      <c r="H34" s="26">
+        <v>0</v>
+      </c>
+      <c r="I34" s="26">
+        <v>0</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="28">
         <v>18.149999999999999</v>
       </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="N34" s="11">
+      <c r="L34" s="26">
+        <v>0</v>
+      </c>
+      <c r="M34" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="N34" s="26">
         <v>1.9870000000000001</v>
       </c>
-      <c r="O34" s="11">
-        <v>189</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q34" s="11" t="s">
-        <v>112</v>
+      <c r="O34" s="26">
+        <v>189</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="26" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -3068,17 +3167,17 @@
         <v>107</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F35" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="11">
         <v>0</v>
@@ -3108,262 +3207,262 @@
         <v>17</v>
       </c>
       <c r="Q35" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="11">
+        <v>3</v>
+      </c>
+      <c r="G36" s="11">
+        <v>3</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="24">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N36" s="11">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O36" s="11">
+        <v>189</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="5">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="24">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N37" s="11">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O37" s="11">
+        <v>189</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="11">
         <v>2</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G38" s="11">
         <v>2</v>
       </c>
-      <c r="H36" s="5">
-        <v>0</v>
-      </c>
-      <c r="I36" s="5">
-        <v>0</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="20">
-        <v>16.5</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="N36" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O36" s="5">
-        <v>189</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="5">
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="24">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N38" s="11">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O38" s="11">
+        <v>189</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="11">
         <v>1</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G39" s="11">
         <v>1</v>
       </c>
-      <c r="H37" s="5">
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="20">
-        <v>16.5</v>
-      </c>
-      <c r="L37" s="5">
-        <v>0</v>
-      </c>
-      <c r="M37" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="N37" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O37" s="5">
-        <v>189</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="5">
-        <v>5</v>
-      </c>
-      <c r="G38" s="5">
-        <v>5</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="20">
-        <v>16.5</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="N38" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O38" s="5">
-        <v>189</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="5">
-        <v>4</v>
-      </c>
-      <c r="G39" s="5">
-        <v>4</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="20">
-        <v>16.5</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="N39" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O39" s="5">
-        <v>189</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>27</v>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="24">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N39" s="11">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O39" s="11">
+        <v>189</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="5">
-        <v>5</v>
-      </c>
-      <c r="G40" s="5">
-        <v>5</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="20">
-        <v>16.5</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="N40" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O40" s="5">
-        <v>189</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>37</v>
+      <c r="A40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="11">
+        <v>2</v>
+      </c>
+      <c r="G40" s="11">
+        <v>2</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="24">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N40" s="11">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O40" s="11">
+        <v>189</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -3374,17 +3473,17 @@
         <v>15</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F41" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G41" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H41" s="5">
         <v>0</v>
@@ -3414,7 +3513,7 @@
         <v>17</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -3425,17 +3524,17 @@
         <v>15</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F42" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G42" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H42" s="5">
         <v>0</v>
@@ -3465,262 +3564,1022 @@
         <v>17</v>
       </c>
       <c r="Q42" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="5">
+        <v>5</v>
+      </c>
+      <c r="G43" s="5">
+        <v>5</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="20">
+        <v>16.5</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N43" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O43" s="5">
+        <v>189</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q43" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="11" t="s">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="5">
+        <v>4</v>
+      </c>
+      <c r="G44" s="5">
+        <v>4</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="20">
+        <v>16.5</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N44" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O44" s="5">
+        <v>189</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="5">
+        <v>5</v>
+      </c>
+      <c r="G45" s="5">
+        <v>5</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="20">
+        <v>16.5</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N45" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O45" s="5">
+        <v>189</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="5">
+        <v>6</v>
+      </c>
+      <c r="G46" s="5">
+        <v>6</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="20">
+        <v>16.5</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N46" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O46" s="5">
+        <v>189</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="5">
+        <v>7</v>
+      </c>
+      <c r="G47" s="5">
+        <v>7</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="20">
+        <v>16.5</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N47" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O47" s="5">
+        <v>189</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="11" t="s">
+      <c r="D48" s="12"/>
+      <c r="E48" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F48" s="11">
         <v>3</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G48" s="11">
         <v>3</v>
       </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>0</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="24">
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="24">
         <v>16.5</v>
       </c>
-      <c r="L43" s="11">
-        <v>0</v>
-      </c>
-      <c r="M43" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="N43" s="11">
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N48" s="11">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O43" s="11">
-        <v>189</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q43" s="11" t="s">
+      <c r="O48" s="11">
+        <v>189</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q48" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="11" t="s">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="11" t="s">
+      <c r="D49" s="12"/>
+      <c r="E49" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F49" s="11">
         <v>1</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G49" s="11">
         <v>1</v>
       </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="24">
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="24">
         <v>16.5</v>
       </c>
-      <c r="L44" s="11">
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="N44" s="11">
+      <c r="L49" s="11">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N49" s="11">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O44" s="11">
-        <v>189</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q44" s="11" t="s">
+      <c r="O49" s="11">
+        <v>189</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q49" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="11" t="s">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="11" t="s">
+      <c r="D50" s="12"/>
+      <c r="E50" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F50" s="11">
         <v>2</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G50" s="11">
         <v>2</v>
       </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>0</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="24">
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="24">
         <v>16.5</v>
       </c>
-      <c r="L45" s="11">
-        <v>0</v>
-      </c>
-      <c r="M45" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="N45" s="11">
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N50" s="11">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O45" s="11">
-        <v>189</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q45" s="11" t="s">
+      <c r="O50" s="11">
+        <v>189</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q50" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="11" t="s">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="11" t="s">
+      <c r="D51" s="12"/>
+      <c r="E51" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F51" s="11">
         <v>4</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G51" s="11">
         <v>4</v>
       </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="24">
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="24">
         <v>16.5</v>
       </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="N46" s="11">
+      <c r="L51" s="11">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N51" s="11">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O46" s="11">
-        <v>189</v>
-      </c>
-      <c r="P46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q46" s="11" t="s">
+      <c r="O51" s="11">
+        <v>189</v>
+      </c>
+      <c r="P51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q51" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="26" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C52" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="26" t="s">
+      <c r="D52" s="12"/>
+      <c r="E52" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="26">
+      <c r="F52" s="11">
         <v>1</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G52" s="11">
         <v>1</v>
       </c>
-      <c r="H47" s="26">
-        <v>0</v>
-      </c>
-      <c r="I47" s="26">
-        <v>0</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="28">
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="24">
         <v>18.5</v>
       </c>
-      <c r="L47" s="26">
-        <v>0</v>
-      </c>
-      <c r="M47" s="26">
-        <v>0.9</v>
-      </c>
-      <c r="N47" s="26">
+      <c r="L52" s="11">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N52" s="11">
         <v>2.11</v>
       </c>
-      <c r="O47" s="26">
-        <v>189</v>
-      </c>
-      <c r="P47" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q47" s="26" t="s">
+      <c r="O52" s="11">
+        <v>189</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q52" s="11" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="26">
+        <v>1</v>
+      </c>
+      <c r="G53" s="26">
+        <v>1</v>
+      </c>
+      <c r="H53" s="26">
+        <v>0</v>
+      </c>
+      <c r="I53" s="26">
+        <v>0</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="L53" s="26">
+        <v>0</v>
+      </c>
+      <c r="M53" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="N53" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="O53" s="26">
+        <v>189</v>
+      </c>
+      <c r="P53" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q53" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="26">
+        <v>2</v>
+      </c>
+      <c r="G54" s="26">
+        <v>2</v>
+      </c>
+      <c r="H54" s="26">
+        <v>0</v>
+      </c>
+      <c r="I54" s="26">
+        <v>0</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="L54" s="26">
+        <v>0</v>
+      </c>
+      <c r="M54" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="N54" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="O54" s="26">
+        <v>189</v>
+      </c>
+      <c r="P54" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q54" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="11">
+        <v>4</v>
+      </c>
+      <c r="G55" s="11">
+        <v>4</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="L55" s="11">
+        <v>0</v>
+      </c>
+      <c r="M55" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N55" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="O55" s="11">
+        <v>189</v>
+      </c>
+      <c r="P55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q55" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="11">
+        <v>5</v>
+      </c>
+      <c r="G56" s="11">
+        <v>5</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N56" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="O56" s="11">
+        <v>189</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="11">
+        <v>6</v>
+      </c>
+      <c r="G57" s="11">
+        <v>6</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="L57" s="11">
+        <v>0</v>
+      </c>
+      <c r="M57" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N57" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="O57" s="11">
+        <v>189</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q57" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="2">
+        <v>7</v>
+      </c>
+      <c r="G58" s="2">
+        <v>7</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="L58" s="11">
+        <v>0</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N58" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="O58" s="11">
+        <v>189</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q58" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" s="2">
+        <v>8</v>
+      </c>
+      <c r="G59" s="2">
+        <v>8</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N59" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="O59" s="11">
+        <v>189</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q59" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" s="2">
+        <v>9</v>
+      </c>
+      <c r="G60" s="2">
+        <v>9</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="L60" s="11">
+        <v>0</v>
+      </c>
+      <c r="M60" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N60" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="O60" s="11">
+        <v>189</v>
+      </c>
+      <c r="P60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q60" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="2">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2">
+        <v>10</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="L61" s="11">
+        <v>0</v>
+      </c>
+      <c r="M61" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N61" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="O61" s="11">
+        <v>189</v>
+      </c>
+      <c r="P61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q61" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="2">
+        <v>11</v>
+      </c>
+      <c r="G62" s="2">
+        <v>11</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>0</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="L62" s="11">
+        <v>0</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N62" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="O62" s="11">
+        <v>189</v>
+      </c>
+      <c r="P62" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q62" s="26" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
